--- a/testdata/robotfaq/faq_robot_category.xlsx
+++ b/testdata/robotfaq/faq_robot_category.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="query_category" sheetId="1" state="visible" r:id="rId1"/>
@@ -66,7 +66,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -79,6 +79,9 @@
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -357,8 +360,8 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -398,7 +401,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>sql-kicp_faq-select categoryId,categoryName,parentId,indexNo,robotId,addTime,modifyTime,userId,isunAllot from faq_robot_category where userId = 11 and robotId = 877 and categoryName!="未分类" order by modifyTime</t>
+          <t>sql-kicp_faq-select categoryId from faq_robot_category where userId = 11 and robotId = 877;</t>
         </is>
       </c>
     </row>
@@ -415,7 +418,7 @@
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>sql-kicp_faq-select categoryId,categoryName,parentId,indexNo,robotId,addTime,modifyTime,userId,isunAllot from faq_robot_category where userId = 11 and robotId = 877 and categoryName!="未分类" order by modifyTime</t>
+          <t>sql-kicp_faq-select categoryId from faq_robot_category where userId = 11 and robotId = 877;</t>
         </is>
       </c>
     </row>
@@ -432,7 +435,7 @@
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>sql-kicp_faq-select categoryId,categoryName,parentId,indexNo,robotId,addTime,modifyTime,userId,isunAllot from faq_robot_category where userId = 11 and robotId = 877 and categoryName!="未分类" order by modifyTime</t>
+          <t>sql-kicp_faq-select categoryId from faq_robot_category where userId = 11 and robotId = 877;</t>
         </is>
       </c>
     </row>
@@ -518,14 +521,14 @@
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="3" width="26"/>
-    <col customWidth="1" max="2" min="2" width="87.125"/>
+    <col customWidth="1" max="2" min="2" style="5" width="87.125"/>
     <col customWidth="1" max="3" min="3" width="82.375"/>
   </cols>
   <sheetData>
@@ -535,7 +538,7 @@
           <t>description</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>data</t>
         </is>
@@ -552,9 +555,9 @@
           <t>正常添加分类</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>{"parantId": "904","robotId": "877","userId": "11","categoryName":"ZL接口子类1"}</t>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>{"parantId": "904","robotId": "877","userId": "11","categoryName":"ZL接口子类1-子类添加","categoryId":"","indexNo": ""}</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -569,7 +572,7 @@
           <t>正常添加分类-（准备数据）</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>{"parantId": "0","robotId": "877","userId": "11","categoryName":"1111"}</t>
         </is>
@@ -583,17 +586,17 @@
     <row customHeight="1" ht="65.45" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>正常添加分类-（准备数据）</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>{"parantId": "0","robotId": "877","userId": "11","categoryName":"2222"}</t>
+          <t>重复添加分类</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>{"parantId": "0","robotId": "877","userId": "11","categoryName":"ZL测试分类1"}</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>code-8</t>
+          <t>code-1253</t>
         </is>
       </c>
     </row>
@@ -603,9 +606,9 @@
           <t>正常添加分类-（准备数据）</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>{"parantId": "0","robotId": "877","userId": "11","categoryName":"3333"}</t>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>{"parantId": "0","robotId": "877","userId": "11","categoryName":"2222"}</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
@@ -617,17 +620,17 @@
     <row customHeight="1" ht="65.45" r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>重复添加分类</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>{"parantId": "904","robotId": "877","userId": "11","categoryName":"ZL接口子类1"}</t>
+          <t>正常添加分类-（准备数据）</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>{"parantId": "0","robotId": "877","userId": "11","categoryName":"3333"}</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>code-1253</t>
+          <t>code-8</t>
         </is>
       </c>
     </row>
@@ -637,9 +640,9 @@
           <t>错参-robotId为空</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>{"robotId": "","userId": "11","categoryName":"ZL-test子类1"}</t>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>{"robotId": "","userId": "11","categoryName":"ZL-test子类robotId为空"}</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
@@ -654,9 +657,9 @@
           <t>错参-userId为空</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>{"robotId": "877","userId": "","categoryName":"ZL-test子类1"}</t>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>{"robotId": "877","userId": "","categoryName":"ZL-test子类userId为空"}</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
@@ -671,9 +674,9 @@
           <t>错参-userId，robotId均为空</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>{"robotId": "","userId": "","categoryName":"ZL-test子类1"}</t>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>{"robotId": "","userId": "","categoryName":"ZL-test子类userId，robotId均为空"}</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
@@ -688,9 +691,9 @@
           <t>缺参-缺少robotId</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>{"userId": "11","categoryName":"ZL-test子类1"}</t>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>{"userId": "11","categoryName":"ZL-test子类缺少robotId"}</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
@@ -705,9 +708,9 @@
           <t>缺参-缺少userId</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>{"robotId": "877","categoryName":"ZL-test子类1"}</t>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>{"robotId": "877","categoryName":"ZL-test子类缺少userId"}</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
@@ -718,37 +721,37 @@
     </row>
     <row customHeight="1" ht="40.15" r="12">
       <c r="A12" s="4" t="n"/>
-      <c r="B12" s="2" t="n"/>
+      <c r="B12" s="1" t="n"/>
       <c r="C12" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="57" r="13">
       <c r="A13" s="4" t="n"/>
-      <c r="B13" s="2" t="n"/>
+      <c r="B13" s="1" t="n"/>
       <c r="C13" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="57" r="14">
       <c r="A14" s="4" t="n"/>
-      <c r="B14" s="2" t="n"/>
+      <c r="B14" s="1" t="n"/>
       <c r="C14" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="57" r="15">
       <c r="A15" s="4" t="n"/>
-      <c r="B15" s="2" t="n"/>
+      <c r="B15" s="1" t="n"/>
       <c r="C15" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="40.15" r="16">
       <c r="A16" s="4" t="n"/>
-      <c r="B16" s="2" t="n"/>
+      <c r="B16" s="1" t="n"/>
       <c r="C16" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="57" r="17">
       <c r="A17" s="4" t="n"/>
-      <c r="B17" s="2" t="n"/>
+      <c r="B17" s="1" t="n"/>
       <c r="C17" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="40.15" r="18">
       <c r="A18" s="4" t="n"/>
-      <c r="B18" s="2" t="n"/>
+      <c r="B18" s="1" t="n"/>
       <c r="C18" s="1" t="n"/>
     </row>
   </sheetData>
@@ -763,10 +766,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -801,7 +804,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>{ "id":1504}</t>
+          <t>{ "id":2500}</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -810,52 +813,35 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="65.45" r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>重复删除</t>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>错参-id为空</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>{ "id":1504}</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>code-1214</t>
+          <t>{"id": ""}</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>code-1100</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>错参-id为空</t>
+          <t>缺参-id缺少</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>{"id": ""}</t>
+          <t>{"keys": ""}</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
-        <is>
-          <t>code-1100</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>缺参-id缺少</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>{"keys": ""}</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
         <is>
           <t>code-1100</t>
         </is>
